--- a/sofaplayer/Premier_League/Brighton & Hove Albion_stats.xlsx
+++ b/sofaplayer/Premier_League/Brighton & Hove Albion_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL24"/>
+  <dimension ref="A1:DL23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5656,339 +5656,341 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Harry Howell</t>
+          <t>Ferdi Kadıoğlu</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1627806</v>
+        <v>825844</v>
       </c>
       <c r="E15" t="n">
-        <v>6.4</v>
+        <v>6.824</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
+        <v>2054</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.3494</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2.24746314</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1335</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>762</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>86.39455782312901</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>882</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>333</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>429</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>245</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>48.4375</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>24.096385542169</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>96</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>54.545454545455</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>77</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>57.894736842105</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>44.186046511628</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>120</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>38</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>17</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>15</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>83</v>
+      </c>
+      <c r="CU15" t="n">
         <v>80</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.0297398</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>85.18518518518501</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU15" t="n">
+      <c r="CV15" t="n">
+        <v>24</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>64</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>31</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>70.454545454545</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>376</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>506</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>7</v>
       </c>
-      <c r="CV15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>4</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>9</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>18</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ15" t="n">
-        <v>2664085</v>
+        <v>2137110</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6010,242 +6012,242 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ferdi Kadıoğlu</t>
+          <t>Maxim De Cuyper</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>825844</v>
+        <v>997152</v>
       </c>
       <c r="E16" t="n">
-        <v>6.824</v>
+        <v>6.7857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1154</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.7056</v>
+      </c>
+      <c r="L16" t="n">
+        <v>577</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18.181818181818</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.19374715</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>782</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>452</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>84.014869888476</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>538</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>245</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>207</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>105</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>30.30303030303</v>
+      </c>
+      <c r="AM16" t="n">
         <v>22</v>
       </c>
-      <c r="H16" t="n">
-        <v>2054</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.3494</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="AN16" t="n">
+        <v>36.065573770492</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>54</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>45.833333333333</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>31.818181818182</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>158</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI16" t="n">
         <v>16</v>
       </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.24746314</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1335</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>762</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>86.39455782312901</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>882</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>333</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>429</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>245</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>48.4375</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>24.096385542169</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="BJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA16" t="n">
         <v>6</v>
       </c>
-      <c r="AR16" t="n">
-        <v>94</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>96</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>77</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>57.894736842105</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>44.186046511628</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>259</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>24</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK16" t="n">
+      <c r="CB16" t="n">
         <v>4</v>
       </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>120</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>14</v>
-      </c>
       <c r="CC16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CD16" t="n">
         <v>17</v>
@@ -6254,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG16" t="n">
         <v>0</v>
@@ -6266,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="CK16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6290,20 +6292,20 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
+        <v>19</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>61</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>52</v>
+      </c>
+      <c r="CV16" t="n">
         <v>15</v>
       </c>
-      <c r="CS16" t="n">
-        <v>14</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>83</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>80</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>24</v>
-      </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
@@ -6314,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="DA16" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="DB16" t="n">
-        <v>70.454545454545</v>
+        <v>58.823529411765</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,19 +6334,19 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="DG16" t="n">
-        <v>506</v>
+        <v>268</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2137110</v>
+        <v>2137133</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6366,222 +6368,222 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maxim De Cuyper</t>
+          <t>Jan Paul van Hecke</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>997152</v>
+        <v>962012</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7857142857143</v>
+        <v>7.3</v>
       </c>
       <c r="F17" t="n">
+        <v>24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2131</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.0413</v>
+      </c>
+      <c r="L17" t="n">
+        <v>710.33333333333</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>17.647058823529</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.94248932</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2055</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1503</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>87.282229965157</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1722</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>922</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>581</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>232</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51.020408163265</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>73</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>121</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>135</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>60.538116591928</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>64</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>64</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>71</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>57.723577235772</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>241</v>
+      </c>
+      <c r="BH17" t="n">
         <v>21</v>
       </c>
-      <c r="G17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1154</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.7056</v>
-      </c>
-      <c r="L17" t="n">
-        <v>577</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>18.181818181818</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2.19374715</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>782</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>452</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>84.014869888476</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>538</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>245</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>207</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>105</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>30.30303030303</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>36.065573770492</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="BI17" t="n">
+        <v>31</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK17" t="n">
         <v>7</v>
       </c>
-      <c r="AR17" t="n">
-        <v>54</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU17" t="n">
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>219</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
         <v>3</v>
       </c>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>44</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>45.833333333333</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>37</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>31.818181818182</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>158</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>18</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>86</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>2</v>
-      </c>
       <c r="BW17" t="n">
         <v>0</v>
       </c>
@@ -6589,28 +6591,28 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB17" t="n">
         <v>3</v>
       </c>
-      <c r="BZ17" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>4</v>
-      </c>
       <c r="CC17" t="n">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="CD17" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
         <v>0</v>
@@ -6622,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="CK17" t="n">
         <v>6</v>
@@ -6646,61 +6648,61 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>13</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>88</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>52</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>196</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>54.545454545455</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>973</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>749</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="DI17" t="n">
         <v>19</v>
       </c>
-      <c r="CS17" t="n">
-        <v>12</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>61</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>52</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>33</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>270</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>268</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ17" t="n">
-        <v>2137133</v>
+        <v>2137114</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6722,188 +6724,188 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jan Paul van Hecke</t>
+          <t>Lewis Dunk</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>962012</v>
+        <v>115365</v>
       </c>
       <c r="E18" t="n">
-        <v>7.3</v>
+        <v>6.904</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
         <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>2131</v>
+        <v>2205</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.0413</v>
+        <v>1.077</v>
       </c>
       <c r="L18" t="n">
-        <v>710.33333333333</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>17</v>
       </c>
       <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.47332154</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2275</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1824</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>92.121212121212</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1338</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>486</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>144</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>47.014925373134</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>109</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>112</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>57.647058823529</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>54.166666666667</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>59</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>60.204081632653</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>179</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="n">
         <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>17.647058823529</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.94248932</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2055</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1503</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>87.282229965157</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1722</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>922</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>581</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>232</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51.020408163265</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>33</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>73</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>121</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>135</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>60.538116591928</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>64</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>64</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>71</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>57.723577235772</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>241</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>31</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>7</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6915,55 +6917,55 @@
         <v>4</v>
       </c>
       <c r="BO18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>175.2</v>
+        <v>172.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA18" t="n">
         <v>3</v>
       </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>5</v>
-      </c>
       <c r="CB18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC18" t="n">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="CD18" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="CE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
@@ -6978,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK18" t="n">
         <v>6</v>
@@ -7002,19 +7004,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CS18" t="n">
         <v>4</v>
       </c>
       <c r="CT18" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="CU18" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="CV18" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="DA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>54.545454545455</v>
+        <v>60.714285714286</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>973</v>
+        <v>1398</v>
       </c>
       <c r="DG18" t="n">
-        <v>749</v>
+        <v>582</v>
       </c>
       <c r="DH18" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="DI18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2137114</v>
+        <v>2137100</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,47 +7080,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lewis Dunk</t>
+          <t>Jack Hinshelwood</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>115365</v>
+        <v>1142315</v>
       </c>
       <c r="E19" t="n">
-        <v>6.904</v>
+        <v>6.6571428571429</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>2205</v>
+        <v>759</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.077</v>
+        <v>0.83</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7133,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -7142,184 +7144,184 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.47332154</v>
+        <v>0.48047484</v>
       </c>
       <c r="AB19" t="n">
-        <v>2275</v>
+        <v>471</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>325</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>86.898395721925</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>374</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>176</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>149</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>64</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>42.105263157895</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU19" t="n">
         <v>5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>1824</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>92.121212121212</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1338</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>486</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>144</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>47.014925373134</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>109</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>36.585365853659</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>68</v>
+      </c>
+      <c r="BH19" t="n">
         <v>18</v>
       </c>
-      <c r="AT19" t="n">
-        <v>112</v>
-      </c>
-      <c r="AU19" t="n">
+      <c r="BI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>49</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
         <v>4</v>
       </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>98</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>57.647058823529</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>39</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>54.166666666667</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>59</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>60.204081632653</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>179</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>8</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>33</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>172.6</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>25</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>156</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>12</v>
-      </c>
       <c r="BW19" t="n">
         <v>0</v>
       </c>
       <c r="BX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="CA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CB19" t="n">
         <v>4</v>
       </c>
       <c r="CC19" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="CD19" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF19" t="n">
         <v>0</v>
@@ -7334,10 +7336,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="CK19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7358,61 +7360,61 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>35</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>9</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>80</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>188</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>186</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>5</v>
       </c>
-      <c r="CS19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>72</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>39</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>134</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>17</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>60.714285714286</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>1398</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>582</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>116</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>23</v>
-      </c>
       <c r="DJ19" t="n">
-        <v>2137100</v>
+        <v>2168641</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,341 +7436,339 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jack Hinshelwood</t>
+          <t>Igor Júlio</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1142315</v>
+        <v>842513</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6571428571429</v>
+        <v>6.3666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>759</v>
+        <v>122</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.00160173</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>72.727272727273</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
         <v>12</v>
       </c>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8.3333333333333</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.48047484</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>471</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>325</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>86.898395721925</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>374</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>176</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>149</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>64</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>42.105263157895</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="DG20" t="n">
         <v>10</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>36.585365853659</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>49</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>25</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>35</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>9</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>8</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>80</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>188</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>186</v>
-      </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2168641</v>
+        <v>2325170</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,298 +7790,300 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Igor Júlio</t>
+          <t>Joël Veltman</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>842513</v>
+        <v>219572</v>
       </c>
       <c r="E21" t="n">
-        <v>6.3666666666667</v>
+        <v>6.8142857142857</v>
       </c>
       <c r="F21" t="n">
+        <v>14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>800</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="L21" t="n">
+        <v>800</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.12206096</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>561</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>122</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.00160173</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="AF21" t="n">
-        <v>72.727272727273</v>
+        <v>79.61783439490399</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>61</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>70.11494252873599</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>73.015873015873</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>113</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>64</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
         <v>3</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>12</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>26</v>
+      </c>
+      <c r="CV21" t="n">
         <v>9</v>
       </c>
-      <c r="BH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>1</v>
-      </c>
       <c r="CW21" t="n">
         <v>0</v>
       </c>
@@ -8092,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="DA21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DB21" t="n">
-        <v>0</v>
+        <v>59.259259259259</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8110,19 +8112,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="DG21" t="n">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2325170</v>
+        <v>2196322</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,341 +8146,341 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Joël Veltman</t>
+          <t>Olivier Boscagli</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>219572</v>
+        <v>788784</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8142857142857</v>
+        <v>6.8714285714286</v>
       </c>
       <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>369</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.23847484</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>399</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>292</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>88.75379939209699</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>329</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>112</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>59.259259259259</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>57.575757575758</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>61.904761904762</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>37</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>26</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU22" t="n">
         <v>14</v>
       </c>
-      <c r="G22" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>800</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="L22" t="n">
-        <v>800</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.12206096</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>561</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="CV22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>27</v>
+      </c>
+      <c r="DA22" t="n">
         <v>4</v>
       </c>
-      <c r="AE22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>79.61783439490399</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>314</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>125</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>125</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>66</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>31</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ22" t="n">
+      <c r="DB22" t="n">
         <v>50</v>
       </c>
-      <c r="BA22" t="n">
-        <v>61</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>70.11494252873599</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>46</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>73.015873015873</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>113</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>193</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>136</v>
+      </c>
+      <c r="DH22" t="n">
         <v>12</v>
       </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>64</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>12</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>26</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>9</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>16</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>59.259259259259</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>146</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>168</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
       <c r="DI22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2196322</v>
+        <v>2469519</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,38 +8502,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Olivier Boscagli</t>
+          <t>Bart Verbruggen</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>788784</v>
+        <v>994363</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8714285714286</v>
+        <v>7.0807692307692</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H23" t="n">
-        <v>369</v>
+        <v>2340</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.0382</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -8570,79 +8570,79 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.23847484</v>
+        <v>0.07699857</v>
       </c>
       <c r="AB23" t="n">
-        <v>399</v>
+        <v>1258</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>292</v>
+        <v>812</v>
       </c>
       <c r="AF23" t="n">
-        <v>88.75379939209699</v>
+        <v>78.227360308285</v>
       </c>
       <c r="AG23" t="n">
-        <v>329</v>
+        <v>1038</v>
       </c>
       <c r="AH23" t="n">
-        <v>180</v>
+        <v>761</v>
       </c>
       <c r="AI23" t="n">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="AL23" t="n">
-        <v>59.259259259259</v>
+        <v>36.127167630058</v>
       </c>
       <c r="AM23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -8651,127 +8651,127 @@
         <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
-        <v>57.575757575758</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
-        <v>61.904761904762</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE23" t="n">
         <v>6</v>
       </c>
       <c r="BF23" t="n">
-        <v>50</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BG23" t="n">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="BH23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>72</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>26</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>226</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>84</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>46</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
         <v>6</v>
       </c>
-      <c r="BI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>37</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>26</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CJ23" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CL23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CM23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CN23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS23" t="n">
         <v>1</v>
       </c>
       <c r="CT23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CU23" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CV23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8804,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="DA23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DB23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8819,383 +8819,29 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DF23" t="n">
-        <v>193</v>
+        <v>802</v>
       </c>
       <c r="DG23" t="n">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="DH23" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="DI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2469519</v>
+        <v>2137116</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Premier_League</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Brighton &amp; Hove Albion</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bart Verbruggen</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>994363</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.0807692307692</v>
-      </c>
-      <c r="F24" t="n">
-        <v>26</v>
-      </c>
-      <c r="G24" t="n">
-        <v>26</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2340</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.07699857</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1258</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>812</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>78.227360308285</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1038</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>761</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>125</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>36.127167630058</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>232</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>76.92307692307701</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>228</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>72</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>34</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>26</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>226</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>84</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>46</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>6</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>51</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>19</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>28</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>10</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>11</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>346</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB24" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>9</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>802</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>236</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>70</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>2137116</v>
-      </c>
-      <c r="DK24" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL24" t="n">
+      <c r="DL23" t="n">
         <v>1.0453</v>
       </c>
     </row>
